--- a/Git桌面-不放大文件/汇报/第十九次汇报/实验/实验一（VF-GAIN）.xlsx
+++ b/Git桌面-不放大文件/汇报/第十九次汇报/实验/实验一（VF-GAIN）.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\汇报\第十九次汇报\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E460A-AB76-4DA2-81AA-D007410C5F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315E66E-2F35-4F7A-A068-5CA4C7E23415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="选择最优的相关性阈值" sheetId="1" r:id="rId1"/>
     <sheet name="选择最优基分类器" sheetId="5" r:id="rId2"/>
     <sheet name="选择最优的置信度" sheetId="6" r:id="rId3"/>
-    <sheet name="不同方法比较" sheetId="7" r:id="rId4"/>
-    <sheet name="其它" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="不同方法比较" sheetId="7" r:id="rId5"/>
+    <sheet name="其它" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t>missing_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,18 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VF_LR</t>
-  </si>
-  <si>
-    <t>VF_RF</t>
-  </si>
-  <si>
-    <t>VF_GBDT</t>
-  </si>
-  <si>
-    <t>VF_LGB</t>
-  </si>
-  <si>
     <t>数据集&amp;缺失率\基学习器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +169,28 @@
   </si>
   <si>
     <t>其它设置：基学习器=VF_GBDT；相关性阈值=0.6；数据集=Credit；填补模型=VF-GAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFPU_LR</t>
+  </si>
+  <si>
+    <t>VFPU_GBDT</t>
+  </si>
+  <si>
+    <t>VFPU_LGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VFPU_RF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset\缺失率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -316,11 +327,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +385,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,16 +421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,7 +823,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,24 +837,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -976,24 +1008,24 @@
       <c r="N5" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="A7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -1160,7 +1192,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,35 +1202,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
+      <c r="F2" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3">
@@ -1218,7 +1250,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3">
         <v>0.5</v>
       </c>
@@ -1236,7 +1268,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3">
         <v>0.8</v>
       </c>
@@ -1254,7 +1286,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
@@ -1274,7 +1306,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3">
         <v>0.5</v>
       </c>
@@ -1292,7 +1324,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3">
         <v>0.8</v>
       </c>
@@ -1326,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B9A98B-6501-4919-BDE8-2C9BA3CBC106}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1336,18 +1368,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1490,18 +1522,18 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1643,10 +1675,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C70AC0-AD9A-460B-937F-FB8F2F4F6D09}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E1" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="G1" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H1" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I1" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J1" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="K1" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.2097</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.2346</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.3029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2797</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.2641</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.2636</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.31159999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.2964</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.2311</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.32829999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.4118</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.439</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.432</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.4662</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.4153</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.4894</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.50519999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB90D01-AFA1-4AB2-8C4C-3BC93AD4B5A5}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -1670,12 +1958,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="12">
         <v>0.2</v>
@@ -1689,7 +1977,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12">
         <v>0.2</v>
@@ -1703,49 +1991,49 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12">
         <v>0.2</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17">
         <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12">
         <v>0.2</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17">
         <v>0.2097</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12">
         <v>0.2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>0.20569999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12">
         <v>0.5</v>
@@ -1759,7 +2047,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
@@ -1773,49 +2061,49 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="23">
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17">
         <v>0.2208</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12">
         <v>0.5</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="17">
         <v>0.21149999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="12">
         <v>0.5</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>0.2087</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12">
         <v>0.8</v>
@@ -1829,7 +2117,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12">
         <v>0.8</v>
@@ -1843,43 +2131,43 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12">
         <v>0.8</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17">
         <v>0.24360000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12">
         <v>0.8</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20">
         <v>0.2311</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12">
         <v>0.8</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="18">
         <v>0.23619999999999999</v>
       </c>
     </row>
@@ -1897,12 +2185,12 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12">
         <v>0.2</v>
@@ -1916,7 +2204,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12">
         <v>0.2</v>
@@ -1930,49 +2218,49 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12">
         <v>0.2</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17">
         <v>0.3513</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="15">
         <v>0.2</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17">
         <v>0.34870000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="12">
         <v>0.2</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="19">
         <v>0.3478</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" s="12">
         <v>0.5</v>
@@ -1986,7 +2274,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="12">
         <v>0.5</v>
@@ -2000,49 +2288,49 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" s="12">
         <v>0.5</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17">
         <v>0.3745</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" s="15">
         <v>0.5</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="C27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17">
         <v>0.36809999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="12">
         <v>0.5</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="19">
         <v>0.36670000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="12">
         <v>0.8</v>
@@ -2056,7 +2344,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="12">
         <v>0.8</v>
@@ -2070,43 +2358,43 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" s="12">
         <v>0.8</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17">
         <v>0.43530000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32" s="15">
         <v>0.8</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="26">
+      <c r="C32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="20">
         <v>0.4153</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" s="12">
         <v>0.8</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="18">
         <v>0.42049999999999998</v>
       </c>
     </row>
@@ -2119,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FA76C8-2FDC-41FF-AFDA-B047A5A12857}">
   <dimension ref="A1:O27"/>
   <sheetViews>
